--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Mc4r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Mc4r</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H2">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05317933333333334</v>
+        <v>0.01244633333333333</v>
       </c>
       <c r="N2">
-        <v>0.159538</v>
+        <v>0.037339</v>
       </c>
       <c r="O2">
-        <v>0.122537261272471</v>
+        <v>0.03341097222806328</v>
       </c>
       <c r="P2">
-        <v>0.122537261272471</v>
+        <v>0.03341097222806328</v>
       </c>
       <c r="Q2">
-        <v>0.05087462965888889</v>
+        <v>0.003557552051777777</v>
       </c>
       <c r="R2">
-        <v>0.45787166693</v>
+        <v>0.032017968466</v>
       </c>
       <c r="S2">
-        <v>0.0749804600127226</v>
+        <v>0.03341097222806328</v>
       </c>
       <c r="T2">
-        <v>0.07498046001272261</v>
+        <v>0.03341097222806328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,170 +599,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H3">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3808056666666667</v>
+        <v>0.05317933333333334</v>
       </c>
       <c r="N3">
-        <v>1.142417</v>
+        <v>0.159538</v>
       </c>
       <c r="O3">
-        <v>0.8774627387275289</v>
+        <v>0.1427547520640821</v>
       </c>
       <c r="P3">
-        <v>0.877462738727529</v>
+        <v>0.1427547520640821</v>
       </c>
       <c r="Q3">
-        <v>0.3643021837494444</v>
+        <v>0.01520031975244444</v>
       </c>
       <c r="R3">
-        <v>3.278719653745</v>
+        <v>0.136802877772</v>
       </c>
       <c r="S3">
-        <v>0.5369188042118775</v>
+        <v>0.1427547520640821</v>
       </c>
       <c r="T3">
-        <v>0.5369188042118775</v>
+        <v>0.1427547520640821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6067683333333334</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H4">
-        <v>1.820305</v>
+        <v>0.857494</v>
       </c>
       <c r="I4">
-        <v>0.3881007357753999</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3881007357753998</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05317933333333334</v>
+        <v>0.282443</v>
       </c>
       <c r="N4">
-        <v>0.159538</v>
+        <v>0.847329</v>
       </c>
       <c r="O4">
-        <v>0.122537261272471</v>
+        <v>0.758190784087218</v>
       </c>
       <c r="P4">
-        <v>0.122537261272471</v>
+        <v>0.7581907840872181</v>
       </c>
       <c r="Q4">
-        <v>0.03226753545444445</v>
+        <v>0.08073105928066666</v>
       </c>
       <c r="R4">
-        <v>0.29040781909</v>
+        <v>0.726579533526</v>
       </c>
       <c r="S4">
-        <v>0.04755680125974841</v>
+        <v>0.758190784087218</v>
       </c>
       <c r="T4">
-        <v>0.04755680125974841</v>
+        <v>0.7581907840872181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6067683333333334</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H5">
-        <v>1.820305</v>
+        <v>0.857494</v>
       </c>
       <c r="I5">
-        <v>0.3881007357753999</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3881007357753998</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3808056666666667</v>
+        <v>0.02445366666666667</v>
       </c>
       <c r="N5">
-        <v>1.142417</v>
+        <v>0.073361</v>
       </c>
       <c r="O5">
-        <v>0.8774627387275289</v>
+        <v>0.06564349162063661</v>
       </c>
       <c r="P5">
-        <v>0.877462738727529</v>
+        <v>0.06564349162063661</v>
       </c>
       <c r="Q5">
-        <v>0.2310608196872222</v>
+        <v>0.006989624148222222</v>
       </c>
       <c r="R5">
-        <v>2.079547377185</v>
+        <v>0.06290661733399999</v>
       </c>
       <c r="S5">
-        <v>0.3405439345156515</v>
+        <v>0.06564349162063661</v>
       </c>
       <c r="T5">
-        <v>0.3405439345156514</v>
+        <v>0.06564349162063661</v>
       </c>
     </row>
   </sheetData>
